--- a/data/trans_dic/P57B3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57B3_R-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.01586150382294878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0144497649678147</v>
+        <v>0.01444976496781471</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004707831043608132</v>
+        <v>0.004887527370794947</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008012866320989563</v>
+        <v>0.008122315139913926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008474838869254578</v>
+        <v>0.008170798473942855</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02862548758164034</v>
+        <v>0.02900429481974111</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02802523647081217</v>
+        <v>0.02899928884952977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02398621876354431</v>
+        <v>0.02405014591454543</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07718086175952678</v>
+        <v>0.07718086175952675</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1015691856014807</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05315242413258064</v>
+        <v>0.05357732100594001</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08024648332312011</v>
+        <v>0.08069015645046035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07355749077233609</v>
+        <v>0.07471165022131324</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1083190179828873</v>
+        <v>0.1059980281571579</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1268426269929989</v>
+        <v>0.1259320240162723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1076064882091997</v>
+        <v>0.1127286711068098</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08352298564313788</v>
+        <v>0.08328278060557277</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1146987723659478</v>
+        <v>0.115804479045856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1082257493390256</v>
+        <v>0.1087197939984631</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1460018458282047</v>
+        <v>0.1479879293345995</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1719502417615167</v>
+        <v>0.173301700434291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1502960622359505</v>
+        <v>0.1523456917727657</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.08580948237892752</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.06895464797160611</v>
+        <v>0.06895464797160612</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02835753068223623</v>
+        <v>0.02787904700426907</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.065320122524981</v>
+        <v>0.06569803753213126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0519799505369309</v>
+        <v>0.05244800020806707</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08128876177385584</v>
+        <v>0.08338336485808961</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1207063619585395</v>
+        <v>0.123940021181859</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09080717459351362</v>
+        <v>0.08975524832697961</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1129901542230371</v>
+        <v>0.1098220219798732</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09151088522313537</v>
+        <v>0.0923566368933315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1102411328629024</v>
+        <v>0.1081008812238426</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1965030376127334</v>
+        <v>0.2019845310555978</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1482689821652891</v>
+        <v>0.1509538415648816</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1598146972015239</v>
+        <v>0.1611743103453421</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1268950545880815</v>
+        <v>0.1278427831004514</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1116930638257335</v>
+        <v>0.1136594470644067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.127778115207778</v>
+        <v>0.127795935989647</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2065681488797876</v>
+        <v>0.2003643139839142</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1679614967481268</v>
+        <v>0.1698482643004339</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1759475002300899</v>
+        <v>0.1770801423212062</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.08529660778356381</v>
+        <v>0.08529660778356382</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09676573377359042</v>
+        <v>0.09676573377359038</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.09122211476795872</v>
+        <v>0.09122211476795873</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06411256680676082</v>
+        <v>0.06454431808332985</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07775410456416963</v>
+        <v>0.07787495631876322</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0773572283071095</v>
+        <v>0.07714634558542251</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1136295766511163</v>
+        <v>0.1102534265174802</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1188007425105957</v>
+        <v>0.1184581598358543</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1082138345546562</v>
+        <v>0.1090991796721187</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1971457760912618</v>
+        <v>0.200087759268656</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2388402004547906</v>
+        <v>0.2387930313341994</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2267465720497366</v>
+        <v>0.2266674494508614</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.258219660797199</v>
+        <v>0.2575828299589526</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2911779467001558</v>
+        <v>0.2897914622523018</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2678473311682995</v>
+        <v>0.2684038870273139</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1068185570819563</v>
+        <v>0.1077546334598804</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.126593354503137</v>
+        <v>0.1266349277073406</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1192943230172539</v>
+        <v>0.1203151688230486</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1287911694141884</v>
+        <v>0.1287857498224974</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1458432072063873</v>
+        <v>0.1455368514865209</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1339332982770171</v>
+        <v>0.1347667107535396</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1501</v>
+        <v>1558</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2533</v>
+        <v>2567</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5381</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9127</v>
+        <v>9248</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8858</v>
+        <v>9166</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15229</v>
+        <v>15270</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28156</v>
+        <v>28381</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43759</v>
+        <v>44001</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>79077</v>
+        <v>80317</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>57379</v>
+        <v>56149</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>69169</v>
+        <v>68672</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>115680</v>
+        <v>121187</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26393</v>
+        <v>26317</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40876</v>
+        <v>41271</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72768</v>
+        <v>73100</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46136</v>
+        <v>46763</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61280</v>
+        <v>61761</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>101055</v>
+        <v>102433</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10581</v>
+        <v>10403</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27443</v>
+        <v>27602</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41235</v>
+        <v>41606</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30332</v>
+        <v>31114</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50713</v>
+        <v>52072</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72036</v>
+        <v>71201</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23238</v>
+        <v>22587</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20757</v>
+        <v>20949</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>47678</v>
+        <v>46752</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>40414</v>
+        <v>41541</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33631</v>
+        <v>34240</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>69118</v>
+        <v>69706</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>34351</v>
+        <v>34608</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>29459</v>
+        <v>29978</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>68292</v>
+        <v>68301</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>55919</v>
+        <v>54240</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>44300</v>
+        <v>44797</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>94036</v>
+        <v>94642</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>46141</v>
+        <v>46452</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>59814</v>
+        <v>59906</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>115181</v>
+        <v>114867</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>81778</v>
+        <v>79348</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>91389</v>
+        <v>91126</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>161125</v>
+        <v>162443</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>157109</v>
+        <v>159454</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>198555</v>
+        <v>198516</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>369200</v>
+        <v>369071</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>205780</v>
+        <v>205272</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>242065</v>
+        <v>240913</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>436122</v>
+        <v>437028</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>377142</v>
+        <v>380447</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>472074</v>
+        <v>472229</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>866046</v>
+        <v>873457</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>454720</v>
+        <v>454701</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>543858</v>
+        <v>542716</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>972321</v>
+        <v>978371</v>
       </c>
     </row>
     <row r="40">
